--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H2">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I2">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J2">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>45.09499352273633</v>
+        <v>357.9782976823111</v>
       </c>
       <c r="R2">
-        <v>405.854941704627</v>
+        <v>3221.8046791408</v>
       </c>
       <c r="S2">
-        <v>0.0001629504218966752</v>
+        <v>0.000850686456299649</v>
       </c>
       <c r="T2">
-        <v>0.0001629504218966752</v>
+        <v>0.0008506864562996489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H3">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I3">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J3">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>69.27960578857689</v>
+        <v>294.7975368856889</v>
       </c>
       <c r="R3">
-        <v>623.516452097192</v>
+        <v>2653.1778319712</v>
       </c>
       <c r="S3">
-        <v>0.0002503413374788956</v>
+        <v>0.0007005460208141092</v>
       </c>
       <c r="T3">
-        <v>0.0002503413374788956</v>
+        <v>0.0007005460208141091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H4">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I4">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J4">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>34.61853464120089</v>
+        <v>170.0780327351111</v>
       </c>
       <c r="R4">
-        <v>311.566811770808</v>
+        <v>1530.702294616</v>
       </c>
       <c r="S4">
-        <v>0.0001250938160659492</v>
+        <v>0.0004041671796826264</v>
       </c>
       <c r="T4">
-        <v>0.0001250938160659492</v>
+        <v>0.0004041671796826263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H5">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I5">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J5">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>55.10155057531389</v>
+        <v>171.9071657860889</v>
       </c>
       <c r="R5">
-        <v>495.913955177825</v>
+        <v>1547.1644920748</v>
       </c>
       <c r="S5">
-        <v>0.000199109040982152</v>
+        <v>0.0004085138641696781</v>
       </c>
       <c r="T5">
-        <v>0.000199109040982152</v>
+        <v>0.0004085138641696781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H6">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I6">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J6">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>27.67870644942467</v>
+        <v>129.4858813711556</v>
       </c>
       <c r="R6">
-        <v>249.108358044822</v>
+        <v>1165.3729323404</v>
       </c>
       <c r="S6">
-        <v>0.0001000167987875186</v>
+        <v>0.0003077054845995711</v>
       </c>
       <c r="T6">
-        <v>0.0001000167987875186</v>
+        <v>0.0003077054845995711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4756863333333334</v>
+        <v>2.024133333333333</v>
       </c>
       <c r="H7">
-        <v>1.427059</v>
+        <v>6.0724</v>
       </c>
       <c r="I7">
-        <v>0.0009688106486373033</v>
+        <v>0.003186436857318456</v>
       </c>
       <c r="J7">
-        <v>0.0009688106486373032</v>
+        <v>0.003186436857318455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>36.33582541225445</v>
+        <v>216.6410630170222</v>
       </c>
       <c r="R7">
-        <v>327.0224287102901</v>
+        <v>1949.7695671532</v>
       </c>
       <c r="S7">
-        <v>0.0001312992334261126</v>
+        <v>0.0005148178517528219</v>
       </c>
       <c r="T7">
-        <v>0.0001312992334261126</v>
+        <v>0.0005148178517528219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.046143</v>
       </c>
       <c r="I8">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J8">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>64.65801717489765</v>
+        <v>120.6236064743062</v>
       </c>
       <c r="R8">
-        <v>581.9221545740788</v>
+        <v>1085.612458268756</v>
       </c>
       <c r="S8">
-        <v>0.0002336412615812862</v>
+        <v>0.0002866455005849964</v>
       </c>
       <c r="T8">
-        <v>0.0002336412615812862</v>
+        <v>0.0002866455005849964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.046143</v>
       </c>
       <c r="I9">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J9">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>99.33435157695376</v>
@@ -1013,10 +1013,10 @@
         <v>894.0091641925839</v>
       </c>
       <c r="S9">
-        <v>0.0003589439366508881</v>
+        <v>0.0002360544984959231</v>
       </c>
       <c r="T9">
-        <v>0.0003589439366508882</v>
+        <v>0.0002360544984959231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.046143</v>
       </c>
       <c r="I10">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J10">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>49.63668098260177</v>
+        <v>57.30913249040222</v>
       </c>
       <c r="R10">
-        <v>446.730128843416</v>
+        <v>515.78219241362</v>
       </c>
       <c r="S10">
-        <v>0.0001793617755724392</v>
+        <v>0.0001361873140006172</v>
       </c>
       <c r="T10">
-        <v>0.0001793617755724392</v>
+        <v>0.0001361873140006172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.046143</v>
       </c>
       <c r="I11">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J11">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>79.00559962750278</v>
+        <v>57.92547327630678</v>
       </c>
       <c r="R11">
-        <v>711.050396647525</v>
+        <v>521.329259486761</v>
       </c>
       <c r="S11">
-        <v>0.0002854861434897529</v>
+        <v>0.0001376519635685623</v>
       </c>
       <c r="T11">
-        <v>0.0002854861434897529</v>
+        <v>0.0001376519635685623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.046143</v>
       </c>
       <c r="I12">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J12">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>39.68622982689933</v>
+        <v>43.63128742612811</v>
       </c>
       <c r="R12">
-        <v>357.1760684420939</v>
+        <v>392.681586835153</v>
       </c>
       <c r="S12">
-        <v>0.0001434058947257889</v>
+        <v>0.0001036837862089158</v>
       </c>
       <c r="T12">
-        <v>0.000143405894725789</v>
+        <v>0.0001036837862089158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.046143</v>
       </c>
       <c r="I13">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="J13">
-        <v>0.001389098227217429</v>
+        <v>0.001073694992184994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>52.09896354425889</v>
+        <v>72.99891222660544</v>
       </c>
       <c r="R13">
-        <v>468.89067189833</v>
+        <v>656.990210039449</v>
       </c>
       <c r="S13">
-        <v>0.0001882592151972738</v>
+        <v>0.0001734719293259789</v>
       </c>
       <c r="T13">
-        <v>0.0001882592151972738</v>
+        <v>0.0001734719293259789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H14">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I14">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J14">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>11699.38027770463</v>
+        <v>35714.82583483437</v>
       </c>
       <c r="R14">
-        <v>105294.4224993417</v>
+        <v>321433.4325135093</v>
       </c>
       <c r="S14">
-        <v>0.04227562315139081</v>
+        <v>0.08487139813642305</v>
       </c>
       <c r="T14">
-        <v>0.0422756231513908</v>
+        <v>0.08487139813642305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H15">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I15">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J15">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>17973.80130903821</v>
+        <v>29411.39939090445</v>
       </c>
       <c r="R15">
-        <v>161764.2117813439</v>
+        <v>264702.5945181401</v>
       </c>
       <c r="S15">
-        <v>0.06494819663114278</v>
+        <v>0.06989216744325133</v>
       </c>
       <c r="T15">
-        <v>0.06494819663114278</v>
+        <v>0.06989216744325133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H16">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I16">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J16">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>8981.38284951957</v>
+        <v>16968.36751499504</v>
       </c>
       <c r="R16">
-        <v>80832.44564567613</v>
+        <v>152715.3076349553</v>
       </c>
       <c r="S16">
-        <v>0.03245415976846495</v>
+        <v>0.04032300428259866</v>
       </c>
       <c r="T16">
-        <v>0.03245415976846495</v>
+        <v>0.04032300428259866</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H17">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I17">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J17">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>14295.46705105402</v>
+        <v>17150.85670153893</v>
       </c>
       <c r="R17">
-        <v>128659.2034594861</v>
+        <v>154357.7103138503</v>
       </c>
       <c r="S17">
-        <v>0.05165656329465466</v>
+        <v>0.04075666487157603</v>
       </c>
       <c r="T17">
-        <v>0.05165656329465466</v>
+        <v>0.04075666487157603</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H18">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I18">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J18">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>7180.923802184537</v>
+        <v>12918.56442466501</v>
       </c>
       <c r="R18">
-        <v>64628.31421966083</v>
+        <v>116267.0798219851</v>
       </c>
       <c r="S18">
-        <v>0.02594821446384908</v>
+        <v>0.03069920121428641</v>
       </c>
       <c r="T18">
-        <v>0.02594821446384908</v>
+        <v>0.03069920121428641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.4113783333333</v>
+        <v>201.9440003333333</v>
       </c>
       <c r="H19">
-        <v>370.234135</v>
+        <v>605.832001</v>
       </c>
       <c r="I19">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="J19">
-        <v>0.2513468416351538</v>
+        <v>0.3179048510192661</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>9426.914297879095</v>
+        <v>21613.87403767368</v>
       </c>
       <c r="R19">
-        <v>84842.22868091187</v>
+        <v>194524.8663390632</v>
       </c>
       <c r="S19">
-        <v>0.03406408432565149</v>
+        <v>0.0513624150711306</v>
       </c>
       <c r="T19">
-        <v>0.03406408432565149</v>
+        <v>0.0513624150711306</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H20">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I20">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J20">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>14.767067590121</v>
+        <v>33.81575574071733</v>
       </c>
       <c r="R20">
-        <v>132.903608311089</v>
+        <v>304.341801666456</v>
       </c>
       <c r="S20">
-        <v>5.336068831618102E-05</v>
+        <v>8.035851783309598E-05</v>
       </c>
       <c r="T20">
-        <v>5.336068831618103E-05</v>
+        <v>8.035851783309598E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H21">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I21">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J21">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>22.68670070394933</v>
+        <v>27.84750239004266</v>
       </c>
       <c r="R21">
-        <v>204.180306335544</v>
+        <v>250.627521510384</v>
       </c>
       <c r="S21">
-        <v>8.197822335395741E-05</v>
+        <v>6.617578014744543E-05</v>
       </c>
       <c r="T21">
-        <v>8.197822335395742E-05</v>
+        <v>6.617578014744543E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H22">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I22">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J22">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>11.33638572671733</v>
+        <v>16.06610582001333</v>
       </c>
       <c r="R22">
-        <v>102.027471540456</v>
+        <v>144.59495238012</v>
       </c>
       <c r="S22">
-        <v>4.096394505568931E-05</v>
+        <v>3.81789027855854E-05</v>
       </c>
       <c r="T22">
-        <v>4.096394505568931E-05</v>
+        <v>3.81789027855854E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H23">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I23">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J23">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>18.04387268080833</v>
+        <v>16.23889148012067</v>
       </c>
       <c r="R23">
-        <v>162.394854127275</v>
+        <v>146.150023321086</v>
       </c>
       <c r="S23">
-        <v>6.520139900907556E-05</v>
+        <v>3.858950427133957E-05</v>
       </c>
       <c r="T23">
-        <v>6.520139900907556E-05</v>
+        <v>3.858950427133957E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H24">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I24">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J24">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>9.063829419105998</v>
+        <v>12.23164355120867</v>
       </c>
       <c r="R24">
-        <v>81.574464771954</v>
+        <v>110.084791960878</v>
       </c>
       <c r="S24">
-        <v>3.275207983117143E-05</v>
+        <v>2.906682772298213E-05</v>
       </c>
       <c r="T24">
-        <v>3.275207983117144E-05</v>
+        <v>2.906682772298213E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.155771</v>
+        <v>0.191206</v>
       </c>
       <c r="H25">
-        <v>0.467313</v>
+        <v>0.573618</v>
       </c>
       <c r="I25">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="J25">
-        <v>0.0003172523425076637</v>
+        <v>0.0003010008459952074</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>11.89873970233667</v>
+        <v>20.46459608815267</v>
       </c>
       <c r="R25">
-        <v>107.08865732103</v>
+        <v>184.181364793374</v>
       </c>
       <c r="S25">
-        <v>4.299600694158893E-05</v>
+        <v>4.863131323475893E-05</v>
       </c>
       <c r="T25">
-        <v>4.299600694158894E-05</v>
+        <v>4.863131323475893E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H26">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I26">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J26">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>19917.42853433168</v>
+        <v>54676.75463288142</v>
       </c>
       <c r="R26">
-        <v>179256.8568089851</v>
+        <v>492090.7916959329</v>
       </c>
       <c r="S26">
-        <v>0.07197147907627169</v>
+        <v>0.1299318281073263</v>
       </c>
       <c r="T26">
-        <v>0.0719714790762717</v>
+        <v>0.1299318281073262</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H27">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I27">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J27">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>30599.21932320354</v>
+        <v>45026.67534605993</v>
       </c>
       <c r="R27">
-        <v>275392.9739088318</v>
+        <v>405240.0781145394</v>
       </c>
       <c r="S27">
-        <v>0.1105700502187888</v>
+        <v>0.1069997347243858</v>
       </c>
       <c r="T27">
-        <v>0.1105700502187888</v>
+        <v>0.1069997347243858</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H28">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I28">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J28">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>15290.21596004357</v>
+        <v>25977.31461518248</v>
       </c>
       <c r="R28">
-        <v>137611.9436403921</v>
+        <v>233795.8315366423</v>
       </c>
       <c r="S28">
-        <v>0.05525108103905525</v>
+        <v>0.06173153472499633</v>
       </c>
       <c r="T28">
-        <v>0.05525108103905525</v>
+        <v>0.06173153472499632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H29">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I29">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J29">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>24337.09620473371</v>
+        <v>26256.69205137545</v>
       </c>
       <c r="R29">
-        <v>219033.8658426034</v>
+        <v>236310.228462379</v>
       </c>
       <c r="S29">
-        <v>0.08794191515521238</v>
+        <v>0.0623954369858423</v>
       </c>
       <c r="T29">
-        <v>0.08794191515521238</v>
+        <v>0.0623954369858423</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H30">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I30">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J30">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>12225.05237418891</v>
+        <v>19777.36586265381</v>
       </c>
       <c r="R30">
-        <v>110025.4713677002</v>
+        <v>177996.2927638843</v>
       </c>
       <c r="S30">
-        <v>0.0441751353413246</v>
+        <v>0.04699820461064214</v>
       </c>
       <c r="T30">
-        <v>0.0441751353413246</v>
+        <v>0.04699820461064214</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>210.0997873333333</v>
+        <v>309.161316</v>
       </c>
       <c r="H31">
-        <v>630.299362</v>
+        <v>927.4839480000001</v>
       </c>
       <c r="I31">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="J31">
-        <v>0.4279015329673814</v>
+        <v>0.4866887946246021</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>16048.70406555536</v>
+        <v>33089.2412268534</v>
       </c>
       <c r="R31">
-        <v>144438.3365899982</v>
+        <v>297803.1710416806</v>
       </c>
       <c r="S31">
-        <v>0.05799187213672865</v>
+        <v>0.07863205547140932</v>
       </c>
       <c r="T31">
-        <v>0.05799187213672866</v>
+        <v>0.07863205547140932</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H32">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I32">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J32">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>14805.42778102904</v>
+        <v>21440.38957306379</v>
       </c>
       <c r="R32">
-        <v>133248.8500292614</v>
+        <v>192963.5061575741</v>
       </c>
       <c r="S32">
-        <v>0.05349930257918899</v>
+        <v>0.05095015297206613</v>
       </c>
       <c r="T32">
-        <v>0.05349930257918899</v>
+        <v>0.05095015297206612</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H33">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I33">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J33">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>22745.63360750422</v>
+        <v>17656.30508030971</v>
       </c>
       <c r="R33">
-        <v>204710.702467538</v>
+        <v>158906.7457227874</v>
       </c>
       <c r="S33">
-        <v>0.08219117696028233</v>
+        <v>0.04195779380303015</v>
       </c>
       <c r="T33">
-        <v>0.08219117696028236</v>
+        <v>0.04195779380303014</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H34">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I34">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J34">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>11365.83408659178</v>
+        <v>10186.48142434939</v>
       </c>
       <c r="R34">
-        <v>102292.506779326</v>
+        <v>91678.3328191445</v>
       </c>
       <c r="S34">
-        <v>0.04107035648389556</v>
+        <v>0.02420677968789104</v>
       </c>
       <c r="T34">
-        <v>0.04107035648389556</v>
+        <v>0.02420677968789104</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H35">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I35">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J35">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>18090.7449793559</v>
+        <v>10296.03366661614</v>
       </c>
       <c r="R35">
-        <v>162816.7048142031</v>
+        <v>92664.30299954522</v>
       </c>
       <c r="S35">
-        <v>0.06537077170938968</v>
+        <v>0.02446711560589769</v>
       </c>
       <c r="T35">
-        <v>0.06537077170938968</v>
+        <v>0.02446711560589769</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H36">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I36">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J36">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>9087.374393404583</v>
+        <v>7755.296225451269</v>
       </c>
       <c r="R36">
-        <v>81786.36954064126</v>
+        <v>69797.66602906142</v>
       </c>
       <c r="S36">
-        <v>0.03283715941974187</v>
+        <v>0.01842940062650949</v>
       </c>
       <c r="T36">
-        <v>0.03283715941974187</v>
+        <v>0.01842940062650948</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>156.175644</v>
+        <v>121.2313916666667</v>
       </c>
       <c r="H37">
-        <v>468.526932</v>
+        <v>363.694175</v>
       </c>
       <c r="I37">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="J37">
-        <v>0.3180764641791024</v>
+        <v>0.1908452216606331</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>11929.64888073388</v>
+        <v>12975.280397388</v>
       </c>
       <c r="R37">
-        <v>107366.8399266049</v>
+        <v>116777.523576492</v>
       </c>
       <c r="S37">
-        <v>0.04310769702660394</v>
+        <v>0.0308339789652386</v>
       </c>
       <c r="T37">
-        <v>0.04310769702660395</v>
+        <v>0.03083397896523859</v>
       </c>
     </row>
   </sheetData>
